--- a/DATA FILES/Extracted_Data/ar_1987.xlsx
+++ b/DATA FILES/Extracted_Data/ar_1987.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I290"/>
+  <dimension ref="A1:I291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,42 +434,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>AVEIRO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>19/07/1987</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>CDS</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>18794</v>
-      </c>
-      <c r="H1" t="n">
-        <v>5.260000228881836</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DIST_CONC_FREG</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T_ELEI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D_ELEI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SIGLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T_DADOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VOTOS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_VOTOS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MANDATOS</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -481,7 +501,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -490,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>15784</v>
+        <v>18794</v>
       </c>
       <c r="H2" t="n">
-        <v>4.420000076293945</v>
+        <v>5.260000228881836</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -520,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,10 +549,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2692</v>
+        <v>15784</v>
       </c>
       <c r="H3" t="n">
-        <v>0.75</v>
+        <v>4.420000076293945</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -559,7 +579,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,10 +588,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>841</v>
+        <v>2692</v>
       </c>
       <c r="H4" t="n">
-        <v>0.239999994635582</v>
+        <v>0.75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -598,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,10 +627,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>662</v>
+        <v>841</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1899999976158142</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -637,7 +657,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,10 +666,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1408</v>
+        <v>662</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3899999856948853</v>
+        <v>0.1899999976158142</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -676,7 +696,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,13 +705,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>215540</v>
+        <v>1408</v>
       </c>
       <c r="H7" t="n">
-        <v>60.34999847412109</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -715,7 +735,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -724,13 +744,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>761</v>
+        <v>215540</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2099999934434891</v>
+        <v>60.34999847412109</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -754,7 +774,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -763,10 +783,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>9493</v>
+        <v>761</v>
       </c>
       <c r="H9" t="n">
-        <v>2.660000085830688</v>
+        <v>0.2099999934434891</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -793,7 +813,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -802,13 +822,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>81675</v>
+        <v>9493</v>
       </c>
       <c r="H10" t="n">
-        <v>22.8700008392334</v>
+        <v>2.660000085830688</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -832,7 +852,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -841,13 +861,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1371</v>
+        <v>81675</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3799999952316284</v>
+        <v>22.8700008392334</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -871,7 +891,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -880,7 +900,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="H12" t="n">
         <v>0.3799999952316284</v>
@@ -891,11 +911,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BEJA</t>
+          <t>AVEIRO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -910,7 +930,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -919,10 +939,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1101</v>
+        <v>1355</v>
       </c>
       <c r="H13" t="n">
-        <v>1.080000042915344</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -949,7 +969,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -958,10 +978,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2011</v>
+        <v>1101</v>
       </c>
       <c r="H14" t="n">
-        <v>1.960000038146973</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -988,7 +1008,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -997,13 +1017,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>39592</v>
+        <v>2011</v>
       </c>
       <c r="H15" t="n">
-        <v>38.65999984741211</v>
+        <v>1.960000038146973</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1047,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1036,13 +1056,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>914</v>
+        <v>39592</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8899999856948853</v>
+        <v>38.65999984741211</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1066,7 +1086,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1075,10 +1095,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>714</v>
+        <v>914</v>
       </c>
       <c r="H17" t="n">
-        <v>0.699999988079071</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1105,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1114,10 +1134,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1024</v>
+        <v>714</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1144,7 +1164,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1153,10 +1173,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>691</v>
+        <v>1024</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6700000166893005</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1183,7 +1203,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1192,13 +1212,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>25121</v>
+        <v>691</v>
       </c>
       <c r="H20" t="n">
-        <v>24.53000068664551</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1242,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1231,13 +1251,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>392</v>
+        <v>25121</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3799999952316284</v>
+        <v>24.53000068664551</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1261,7 +1281,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1270,10 +1290,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5868</v>
+        <v>392</v>
       </c>
       <c r="H22" t="n">
-        <v>5.730000019073486</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1300,7 +1320,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1309,13 +1329,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>20742</v>
+        <v>5868</v>
       </c>
       <c r="H23" t="n">
-        <v>20.26000022888184</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1339,7 +1359,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1348,22 +1368,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1098</v>
+        <v>20742</v>
       </c>
       <c r="H24" t="n">
-        <v>1.070000052452087</v>
+        <v>20.26000022888184</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRAGA</t>
+          <t>BEJA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1378,7 +1398,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1387,13 +1407,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>23854</v>
+        <v>1098</v>
       </c>
       <c r="H25" t="n">
-        <v>5.920000076293945</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1417,7 +1437,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1426,10 +1446,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>24648</v>
+        <v>23854</v>
       </c>
       <c r="H26" t="n">
-        <v>6.119999885559082</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -1456,7 +1476,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1465,13 +1485,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1171</v>
+        <v>24648</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2899999916553497</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1495,7 +1515,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1504,10 +1524,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1369</v>
+        <v>1171</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3400000035762787</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1534,7 +1554,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1543,7 +1563,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1360</v>
+        <v>1369</v>
       </c>
       <c r="H29" t="n">
         <v>0.3400000035762787</v>
@@ -1573,7 +1593,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1582,10 +1602,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2051</v>
+        <v>1360</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5099999904632568</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1612,7 +1632,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1621,10 +1641,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1060</v>
+        <v>2051</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2599999904632568</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1651,7 +1671,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1660,13 +1680,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>215380</v>
+        <v>1060</v>
       </c>
       <c r="H32" t="n">
-        <v>53.43999862670898</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1690,7 +1710,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1699,13 +1719,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1707</v>
+        <v>215380</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4199999868869781</v>
+        <v>53.43999862670898</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1729,7 +1749,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1738,10 +1758,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>13412</v>
+        <v>1707</v>
       </c>
       <c r="H34" t="n">
-        <v>3.329999923706055</v>
+        <v>0.4199999868869781</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1768,7 +1788,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1777,13 +1797,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>104172</v>
+        <v>13412</v>
       </c>
       <c r="H35" t="n">
-        <v>25.85000038146973</v>
+        <v>3.329999923706055</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1807,7 +1827,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1816,13 +1836,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1977</v>
+        <v>104172</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4900000095367432</v>
+        <v>25.85000038146973</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1846,7 +1866,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1855,10 +1875,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2163</v>
+        <v>1977</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5400000214576721</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1866,11 +1886,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BRAGANÇA</t>
+          <t>BRAGA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1885,7 +1905,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1894,10 +1914,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>7041</v>
+        <v>2163</v>
       </c>
       <c r="H38" t="n">
-        <v>7.579999923706055</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1924,7 +1944,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1933,10 +1953,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3015</v>
+        <v>7041</v>
       </c>
       <c r="H39" t="n">
-        <v>3.240000009536743</v>
+        <v>7.579999923706055</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1963,7 +1983,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1972,10 +1992,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>413</v>
+        <v>3015</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4399999976158142</v>
+        <v>3.240000009536743</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2002,7 +2022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2011,10 +2031,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>531</v>
+        <v>413</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2041,7 +2061,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2050,10 +2070,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>289</v>
+        <v>531</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3100000023841858</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -2080,7 +2100,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2089,10 +2109,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1101</v>
+        <v>289</v>
       </c>
       <c r="H43" t="n">
-        <v>1.179999947547913</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2119,7 +2139,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2128,13 +2148,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>56467</v>
+        <v>1101</v>
       </c>
       <c r="H44" t="n">
-        <v>60.75</v>
+        <v>1.179999947547913</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2158,7 +2178,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2167,13 +2187,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>460</v>
+        <v>56467</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4900000095367432</v>
+        <v>60.75</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2197,7 +2217,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2206,10 +2226,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1161</v>
+        <v>460</v>
       </c>
       <c r="H46" t="n">
-        <v>1.25</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2236,7 +2256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2245,13 +2265,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>17817</v>
+        <v>1161</v>
       </c>
       <c r="H47" t="n">
-        <v>19.17000007629395</v>
+        <v>1.25</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2275,7 +2295,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2284,13 +2304,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>771</v>
+        <v>17817</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8299999833106995</v>
+        <v>19.17000007629395</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2314,7 +2334,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2323,10 +2343,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>639</v>
+        <v>771</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.8299999833106995</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2334,11 +2354,11 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CASTELO BRANCO</t>
+          <t>BRAGANÇA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2353,7 +2373,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2362,10 +2382,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6396</v>
+        <v>639</v>
       </c>
       <c r="H50" t="n">
-        <v>4.659999847412109</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2392,7 +2412,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2401,10 +2421,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>9752</v>
+        <v>6396</v>
       </c>
       <c r="H51" t="n">
-        <v>7.099999904632568</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2431,7 +2451,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2440,10 +2460,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>500</v>
+        <v>9752</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3600000143051147</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2470,7 +2490,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2479,10 +2499,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1127</v>
+        <v>500</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8199999928474426</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2509,7 +2529,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2518,10 +2538,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>566</v>
+        <v>1127</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4099999964237213</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2548,7 +2568,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2557,10 +2577,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1357</v>
+        <v>566</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2587,7 +2607,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2596,13 +2616,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>71610</v>
+        <v>1357</v>
       </c>
       <c r="H56" t="n">
-        <v>52.13000106811523</v>
+        <v>0.9900000095367432</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2626,7 +2646,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2635,13 +2655,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>753</v>
+        <v>71610</v>
       </c>
       <c r="H57" t="n">
-        <v>0.550000011920929</v>
+        <v>52.13000106811523</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -2665,7 +2685,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2674,10 +2694,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8177</v>
+        <v>753</v>
       </c>
       <c r="H58" t="n">
-        <v>5.949999809265137</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2704,7 +2724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2713,13 +2733,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>30784</v>
+        <v>8177</v>
       </c>
       <c r="H59" t="n">
-        <v>22.40999984741211</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2743,7 +2763,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2752,13 +2772,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>781</v>
+        <v>30784</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5699999928474426</v>
+        <v>22.40999984741211</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2782,7 +2802,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2791,10 +2811,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>978</v>
+        <v>781</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2802,11 +2822,11 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>COIMBRA</t>
+          <t>CASTELO BRANCO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2821,7 +2841,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2830,10 +2850,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>11025</v>
+        <v>978</v>
       </c>
       <c r="H62" t="n">
-        <v>4.53000020980835</v>
+        <v>0.7099999785423279</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2860,7 +2880,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2869,13 +2889,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>17394</v>
+        <v>11025</v>
       </c>
       <c r="H63" t="n">
-        <v>7.150000095367432</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2899,7 +2919,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2908,13 +2928,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1026</v>
+        <v>17394</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4199999868869781</v>
+        <v>7.150000095367432</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2938,7 +2958,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2947,10 +2967,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1241</v>
+        <v>1026</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5099999904632568</v>
+        <v>0.4199999868869781</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2977,7 +2997,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2986,10 +3006,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>472</v>
+        <v>1241</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1899999976158142</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -3016,7 +3036,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3025,10 +3045,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>859</v>
+        <v>472</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3499999940395355</v>
+        <v>0.1899999976158142</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3055,7 +3075,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3064,10 +3084,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1048</v>
+        <v>859</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4300000071525574</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3094,7 +3114,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3103,13 +3123,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>121641</v>
+        <v>1048</v>
       </c>
       <c r="H69" t="n">
-        <v>50.0099983215332</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="I69" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3133,7 +3153,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3142,13 +3162,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1712</v>
+        <v>121641</v>
       </c>
       <c r="H70" t="n">
-        <v>0.699999988079071</v>
+        <v>50.0099983215332</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3172,7 +3192,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3181,10 +3201,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8395</v>
+        <v>1712</v>
       </c>
       <c r="H71" t="n">
-        <v>3.450000047683716</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3211,7 +3231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3220,13 +3240,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>69745</v>
+        <v>8395</v>
       </c>
       <c r="H72" t="n">
-        <v>28.68000030517578</v>
+        <v>3.450000047683716</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3250,7 +3270,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3259,13 +3279,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1111</v>
+        <v>69745</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4600000083446503</v>
+        <v>28.68000030517578</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3289,7 +3309,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3298,10 +3318,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1045</v>
+        <v>1111</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4300000071525574</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3309,11 +3329,11 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ÉVORA</t>
+          <t>COIMBRA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3328,7 +3348,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3337,10 +3357,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2316</v>
+        <v>1045</v>
       </c>
       <c r="H75" t="n">
-        <v>2.109999895095825</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3367,7 +3387,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3376,13 +3396,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>39758</v>
+        <v>2316</v>
       </c>
       <c r="H76" t="n">
-        <v>36.16999816894531</v>
+        <v>2.109999895095825</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3406,7 +3426,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3415,13 +3435,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>916</v>
+        <v>39758</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8299999833106995</v>
+        <v>36.16999816894531</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -3445,7 +3465,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3454,10 +3474,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>549</v>
+        <v>916</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5</v>
+        <v>0.8299999833106995</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3484,7 +3504,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3493,10 +3513,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.5</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -3523,7 +3543,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3532,10 +3552,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>745</v>
+        <v>504</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3562,7 +3582,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3571,13 +3591,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>35300</v>
+        <v>745</v>
       </c>
       <c r="H81" t="n">
-        <v>32.11000061035156</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3601,7 +3621,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3610,13 +3630,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>333</v>
+        <v>35300</v>
       </c>
       <c r="H82" t="n">
-        <v>0.300000011920929</v>
+        <v>32.11000061035156</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -3640,7 +3660,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3649,10 +3669,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8485</v>
+        <v>333</v>
       </c>
       <c r="H83" t="n">
-        <v>7.71999979019165</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3679,7 +3699,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3688,10 +3708,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>16907</v>
+        <v>8485</v>
       </c>
       <c r="H84" t="n">
-        <v>15.38000011444092</v>
+        <v>7.71999979019165</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3718,7 +3738,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3727,10 +3747,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>966</v>
+        <v>16907</v>
       </c>
       <c r="H85" t="n">
-        <v>0.8799999952316284</v>
+        <v>15.38000011444092</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -3757,7 +3777,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3766,10 +3786,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>671</v>
+        <v>966</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.8799999952316284</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3777,11 +3797,11 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>ÉVORA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3796,7 +3816,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3805,10 +3825,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5910</v>
+        <v>671</v>
       </c>
       <c r="H87" t="n">
-        <v>3.119999885559082</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3835,7 +3855,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3844,13 +3864,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>20683</v>
+        <v>5910</v>
       </c>
       <c r="H88" t="n">
-        <v>10.90999984741211</v>
+        <v>3.119999885559082</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3874,7 +3894,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3883,13 +3903,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2148</v>
+        <v>20683</v>
       </c>
       <c r="H89" t="n">
-        <v>1.129999995231628</v>
+        <v>10.90999984741211</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3913,7 +3933,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3922,10 +3942,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1380</v>
+        <v>2148</v>
       </c>
       <c r="H90" t="n">
-        <v>0.7300000190734863</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3952,7 +3972,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3961,10 +3981,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>868</v>
+        <v>1380</v>
       </c>
       <c r="H91" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3991,7 +4011,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4000,10 +4020,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1024</v>
+        <v>868</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5400000214576721</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -4030,7 +4050,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4039,13 +4059,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>88442</v>
+        <v>1024</v>
       </c>
       <c r="H93" t="n">
-        <v>46.66999816894531</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4069,7 +4089,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4078,13 +4098,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1211</v>
+        <v>88442</v>
       </c>
       <c r="H94" t="n">
-        <v>0.6399999856948853</v>
+        <v>46.66999816894531</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -4108,7 +4128,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4117,10 +4137,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>11926</v>
+        <v>1211</v>
       </c>
       <c r="H95" t="n">
-        <v>6.289999961853027</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4147,7 +4167,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4156,13 +4176,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>47218</v>
+        <v>11926</v>
       </c>
       <c r="H96" t="n">
-        <v>24.90999984741211</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4186,7 +4206,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4195,13 +4215,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1347</v>
+        <v>47218</v>
       </c>
       <c r="H97" t="n">
-        <v>0.7099999785423279</v>
+        <v>24.90999984741211</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -4225,7 +4245,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4234,10 +4254,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1962</v>
+        <v>1347</v>
       </c>
       <c r="H98" t="n">
-        <v>1.039999961853027</v>
+        <v>0.7099999785423279</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -4245,11 +4265,11 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GUARDA</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4264,7 +4284,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4273,10 +4293,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>7827</v>
+        <v>1962</v>
       </c>
       <c r="H99" t="n">
-        <v>6.599999904632568</v>
+        <v>1.039999961853027</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4303,7 +4323,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4312,10 +4332,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3934</v>
+        <v>7827</v>
       </c>
       <c r="H100" t="n">
-        <v>3.319999933242798</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -4342,7 +4362,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4351,10 +4371,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>379</v>
+        <v>3934</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3199999928474426</v>
+        <v>3.319999933242798</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4381,7 +4401,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4390,10 +4410,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>532</v>
+        <v>379</v>
       </c>
       <c r="H102" t="n">
-        <v>0.449999988079071</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4420,7 +4440,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4429,10 +4449,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>574</v>
+        <v>532</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -4459,7 +4479,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4468,10 +4488,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1143</v>
+        <v>574</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9599999785423279</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -4498,7 +4518,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4507,13 +4527,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>71133</v>
+        <v>1143</v>
       </c>
       <c r="H105" t="n">
-        <v>60.0099983215332</v>
+        <v>0.9599999785423279</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4537,7 +4557,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4546,13 +4566,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>667</v>
+        <v>71133</v>
       </c>
       <c r="H106" t="n">
-        <v>0.5600000023841858</v>
+        <v>60.0099983215332</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -4576,7 +4596,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4585,10 +4605,10 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2369</v>
+        <v>667</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -4615,7 +4635,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4624,13 +4644,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>25783</v>
+        <v>2369</v>
       </c>
       <c r="H108" t="n">
-        <v>21.75</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4654,7 +4674,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4663,13 +4683,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>331</v>
+        <v>25783</v>
       </c>
       <c r="H109" t="n">
-        <v>0.2800000011920929</v>
+        <v>21.75</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -4693,7 +4713,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4702,10 +4722,10 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2700000107288361</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4713,11 +4733,11 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>LEIRIA</t>
+          <t>GUARDA</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4732,7 +4752,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4741,10 +4761,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>14608</v>
+        <v>325</v>
       </c>
       <c r="H111" t="n">
-        <v>6.039999961853027</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4771,7 +4791,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4780,10 +4800,10 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>14312</v>
+        <v>14608</v>
       </c>
       <c r="H112" t="n">
-        <v>5.920000076293945</v>
+        <v>6.039999961853027</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -4810,7 +4830,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4819,10 +4839,10 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>841</v>
+        <v>14312</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3499999940395355</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4849,7 +4869,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4858,10 +4878,10 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>979</v>
+        <v>841</v>
       </c>
       <c r="H114" t="n">
-        <v>0.4099999964237213</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -4888,7 +4908,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4897,10 +4917,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>656</v>
+        <v>979</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2700000107288361</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -4927,7 +4947,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4936,10 +4956,10 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1057</v>
+        <v>656</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4399999976158142</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -4966,7 +4986,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4975,10 +4995,10 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>959</v>
+        <v>1057</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -5005,7 +5025,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5014,13 +5034,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>146879</v>
+        <v>959</v>
       </c>
       <c r="H118" t="n">
-        <v>60.77000045776367</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I118" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5044,7 +5064,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5053,13 +5073,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>560</v>
+        <v>146879</v>
       </c>
       <c r="H119" t="n">
-        <v>0.2300000041723251</v>
+        <v>60.77000045776367</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -5083,7 +5103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5092,10 +5112,10 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7308</v>
+        <v>560</v>
       </c>
       <c r="H120" t="n">
-        <v>3.019999980926514</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -5122,7 +5142,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5131,13 +5151,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>45277</v>
+        <v>7308</v>
       </c>
       <c r="H121" t="n">
-        <v>18.72999954223633</v>
+        <v>3.019999980926514</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5161,7 +5181,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5170,13 +5190,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>961</v>
+        <v>45277</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4000000059604645</v>
+        <v>18.72999954223633</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -5200,7 +5220,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5209,10 +5229,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1297</v>
+        <v>961</v>
       </c>
       <c r="H123" t="n">
-        <v>0.5400000214576721</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -5220,11 +5240,11 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LISBOA</t>
+          <t>LEIRIA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5239,7 +5259,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5248,13 +5268,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>45465</v>
+        <v>1297</v>
       </c>
       <c r="H124" t="n">
-        <v>3.690000057220459</v>
+        <v>0.5400000214576721</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5278,7 +5298,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5287,13 +5307,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>203263</v>
+        <v>45465</v>
       </c>
       <c r="H125" t="n">
-        <v>16.5</v>
+        <v>3.690000057220459</v>
       </c>
       <c r="I125" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -5317,7 +5337,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5326,13 +5346,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>8945</v>
+        <v>203263</v>
       </c>
       <c r="H126" t="n">
-        <v>0.7300000190734863</v>
+        <v>16.5</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
@@ -5356,7 +5376,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5365,10 +5385,10 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5622</v>
+        <v>8945</v>
       </c>
       <c r="H127" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -5395,7 +5415,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5404,10 +5424,10 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5033</v>
+        <v>5622</v>
       </c>
       <c r="H128" t="n">
-        <v>0.4099999964237213</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -5434,7 +5454,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5443,10 +5463,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1922</v>
+        <v>5033</v>
       </c>
       <c r="H129" t="n">
-        <v>0.1599999964237213</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -5473,7 +5493,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5482,13 +5502,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>564553</v>
+        <v>1922</v>
       </c>
       <c r="H130" t="n">
-        <v>45.81999969482422</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="I130" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5512,7 +5532,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5521,13 +5541,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6337</v>
+        <v>564553</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5099999904632568</v>
+        <v>45.81999969482422</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
@@ -5551,7 +5571,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5560,13 +5580,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>84433</v>
+        <v>6337</v>
       </c>
       <c r="H132" t="n">
-        <v>6.849999904632568</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I132" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5590,7 +5610,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5599,13 +5619,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>261129</v>
+        <v>84433</v>
       </c>
       <c r="H133" t="n">
-        <v>21.19000053405762</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="I133" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -5629,7 +5649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5638,13 +5658,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>7072</v>
+        <v>261129</v>
       </c>
       <c r="H134" t="n">
-        <v>0.5699999928474426</v>
+        <v>21.19000053405762</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
@@ -5668,7 +5688,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5677,10 +5697,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>17617</v>
+        <v>7072</v>
       </c>
       <c r="H135" t="n">
-        <v>1.429999947547913</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -5688,11 +5708,11 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PORTALEGRE</t>
+          <t>LISBOA</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5707,7 +5727,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5716,10 +5736,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2652</v>
+        <v>17617</v>
       </c>
       <c r="H136" t="n">
-        <v>3.049999952316284</v>
+        <v>1.429999947547913</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -5746,7 +5766,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5755,13 +5775,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>18199</v>
+        <v>2652</v>
       </c>
       <c r="H137" t="n">
-        <v>20.90999984741211</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5785,7 +5805,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5794,13 +5814,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>599</v>
+        <v>18199</v>
       </c>
       <c r="H138" t="n">
-        <v>0.6899999976158142</v>
+        <v>20.90999984741211</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -5824,7 +5844,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5833,10 +5853,10 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>512</v>
+        <v>599</v>
       </c>
       <c r="H139" t="n">
-        <v>0.5899999737739563</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -5863,7 +5883,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5872,10 +5892,10 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>596</v>
+        <v>512</v>
       </c>
       <c r="H140" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -5902,7 +5922,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5911,10 +5931,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>478</v>
+        <v>596</v>
       </c>
       <c r="H141" t="n">
-        <v>0.550000011920929</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -5941,7 +5961,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5950,13 +5970,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>32545</v>
+        <v>478</v>
       </c>
       <c r="H142" t="n">
-        <v>37.38999938964844</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -5980,7 +6000,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5989,13 +6009,13 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>394</v>
+        <v>32545</v>
       </c>
       <c r="H143" t="n">
-        <v>0.449999988079071</v>
+        <v>37.38999938964844</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -6019,7 +6039,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6028,10 +6048,10 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5517</v>
+        <v>394</v>
       </c>
       <c r="H144" t="n">
-        <v>6.340000152587891</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -6058,7 +6078,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6067,13 +6087,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>21883</v>
+        <v>5517</v>
       </c>
       <c r="H145" t="n">
-        <v>25.13999938964844</v>
+        <v>6.340000152587891</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -6097,7 +6117,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6106,13 +6126,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>727</v>
+        <v>21883</v>
       </c>
       <c r="H146" t="n">
-        <v>0.8399999737739563</v>
+        <v>25.13999938964844</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -6136,7 +6156,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6145,10 +6165,10 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>629</v>
+        <v>727</v>
       </c>
       <c r="H147" t="n">
-        <v>0.7200000286102295</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -6156,11 +6176,11 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PORTO</t>
+          <t>PORTALEGRE</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6175,7 +6195,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6184,13 +6204,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>36997</v>
+        <v>629</v>
       </c>
       <c r="H148" t="n">
-        <v>3.960000038146973</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6214,7 +6234,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6223,13 +6243,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>87335</v>
+        <v>36997</v>
       </c>
       <c r="H149" t="n">
-        <v>9.359999656677246</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="I149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -6253,7 +6273,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6262,13 +6282,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4166</v>
+        <v>87335</v>
       </c>
       <c r="H150" t="n">
-        <v>0.449999988079071</v>
+        <v>9.359999656677246</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -6292,7 +6312,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6301,10 +6321,10 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4112</v>
+        <v>4166</v>
       </c>
       <c r="H151" t="n">
-        <v>0.4399999976158142</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -6331,7 +6351,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6340,10 +6360,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2334</v>
+        <v>4112</v>
       </c>
       <c r="H152" t="n">
-        <v>0.25</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -6370,7 +6390,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6379,10 +6399,10 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2634</v>
+        <v>2334</v>
       </c>
       <c r="H153" t="n">
-        <v>0.2800000011920929</v>
+        <v>0.25</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -6409,7 +6429,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6418,10 +6438,10 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2800</v>
+        <v>2634</v>
       </c>
       <c r="H154" t="n">
-        <v>0.300000011920929</v>
+        <v>0.2800000011920929</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -6448,7 +6468,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6457,13 +6477,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>475410</v>
+        <v>2800</v>
       </c>
       <c r="H155" t="n">
-        <v>50.93999862670898</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="I155" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6487,7 +6507,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6496,13 +6516,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2303</v>
+        <v>475410</v>
       </c>
       <c r="H156" t="n">
-        <v>0.25</v>
+        <v>50.93999862670898</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157">
@@ -6526,7 +6546,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6535,13 +6555,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>37581</v>
+        <v>2303</v>
       </c>
       <c r="H157" t="n">
-        <v>4.03000020980835</v>
+        <v>0.25</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6565,7 +6585,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6574,13 +6594,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>249443</v>
+        <v>37581</v>
       </c>
       <c r="H158" t="n">
-        <v>26.72999954223633</v>
+        <v>4.03000020980835</v>
       </c>
       <c r="I158" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -6604,7 +6624,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6613,13 +6633,13 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5997</v>
+        <v>249443</v>
       </c>
       <c r="H159" t="n">
-        <v>0.6399999856948853</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
@@ -6643,7 +6663,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6652,10 +6672,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>6169</v>
+        <v>5997</v>
       </c>
       <c r="H160" t="n">
-        <v>0.6600000262260437</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -6663,11 +6683,11 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SANTARÉM</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6682,7 +6702,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6691,10 +6711,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>9674</v>
+        <v>6169</v>
       </c>
       <c r="H161" t="n">
-        <v>3.630000114440918</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -6721,7 +6741,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6730,13 +6750,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>33688</v>
+        <v>9674</v>
       </c>
       <c r="H162" t="n">
-        <v>12.63000011444092</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -6760,7 +6780,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6769,13 +6789,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1229</v>
+        <v>33688</v>
       </c>
       <c r="H163" t="n">
-        <v>0.4600000083446503</v>
+        <v>12.63000011444092</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -6799,7 +6819,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6808,10 +6828,10 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1272</v>
+        <v>1229</v>
       </c>
       <c r="H164" t="n">
-        <v>0.4799999892711639</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -6838,7 +6858,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6847,10 +6867,10 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1015</v>
+        <v>1272</v>
       </c>
       <c r="H165" t="n">
-        <v>0.3799999952316284</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -6877,7 +6897,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6886,10 +6906,10 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2120</v>
+        <v>1015</v>
       </c>
       <c r="H166" t="n">
-        <v>0.7900000214576721</v>
+        <v>0.3799999952316284</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -6916,7 +6936,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6925,13 +6945,13 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>127788</v>
+        <v>2120</v>
       </c>
       <c r="H167" t="n">
-        <v>47.90000152587891</v>
+        <v>0.7900000214576721</v>
       </c>
       <c r="I167" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6955,7 +6975,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6964,13 +6984,13 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1198</v>
+        <v>127788</v>
       </c>
       <c r="H168" t="n">
-        <v>0.449999988079071</v>
+        <v>47.90000152587891</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -6994,7 +7014,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7003,13 +7023,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>19562</v>
+        <v>1198</v>
       </c>
       <c r="H169" t="n">
-        <v>7.329999923706055</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -7033,7 +7053,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -7042,13 +7062,13 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>57778</v>
+        <v>19562</v>
       </c>
       <c r="H170" t="n">
-        <v>21.65999984741211</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -7072,7 +7092,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7081,13 +7101,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2083</v>
+        <v>57778</v>
       </c>
       <c r="H171" t="n">
-        <v>0.7799999713897705</v>
+        <v>21.65999984741211</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -7111,7 +7131,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7120,10 +7140,10 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2617</v>
+        <v>2083</v>
       </c>
       <c r="H172" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -7131,11 +7151,11 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SETÚBAL</t>
+          <t>SANTARÉM</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7150,7 +7170,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7159,10 +7179,10 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>7401</v>
+        <v>2617</v>
       </c>
       <c r="H173" t="n">
-        <v>1.879999995231628</v>
+        <v>0.9800000190734863</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -7189,7 +7209,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7198,13 +7218,13 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>129037</v>
+        <v>7401</v>
       </c>
       <c r="H174" t="n">
-        <v>32.7400016784668</v>
+        <v>1.879999995231628</v>
       </c>
       <c r="I174" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -7228,7 +7248,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7237,13 +7257,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3664</v>
+        <v>129037</v>
       </c>
       <c r="H175" t="n">
-        <v>0.9300000071525574</v>
+        <v>32.7400016784668</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -7267,7 +7287,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7276,10 +7296,10 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1275</v>
+        <v>3664</v>
       </c>
       <c r="H176" t="n">
-        <v>0.3199999928474426</v>
+        <v>0.9300000071525574</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -7306,7 +7326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7315,10 +7335,10 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1871</v>
+        <v>1275</v>
       </c>
       <c r="H177" t="n">
-        <v>0.4699999988079071</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -7345,7 +7365,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7354,10 +7374,10 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1433</v>
+        <v>1871</v>
       </c>
       <c r="H178" t="n">
-        <v>0.3600000143051147</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -7384,7 +7404,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7393,10 +7413,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>667</v>
+        <v>1433</v>
       </c>
       <c r="H179" t="n">
-        <v>0.1700000017881393</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -7423,7 +7443,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7432,13 +7452,13 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>128402</v>
+        <v>667</v>
       </c>
       <c r="H180" t="n">
-        <v>32.58000183105469</v>
+        <v>0.1700000017881393</v>
       </c>
       <c r="I180" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -7462,7 +7482,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7471,13 +7491,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1021</v>
+        <v>128402</v>
       </c>
       <c r="H181" t="n">
-        <v>0.2599999904632568</v>
+        <v>32.58000183105469</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182">
@@ -7501,7 +7521,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7510,13 +7530,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>34109</v>
+        <v>1021</v>
       </c>
       <c r="H182" t="n">
-        <v>8.659999847412109</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -7540,7 +7560,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7549,13 +7569,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>69408</v>
+        <v>34109</v>
       </c>
       <c r="H183" t="n">
-        <v>17.61000061035156</v>
+        <v>8.659999847412109</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -7579,7 +7599,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7588,13 +7608,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2783</v>
+        <v>69408</v>
       </c>
       <c r="H184" t="n">
-        <v>0.7099999785423279</v>
+        <v>17.61000061035156</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -7618,7 +7638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7627,10 +7647,10 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5858</v>
+        <v>2783</v>
       </c>
       <c r="H185" t="n">
-        <v>1.490000009536743</v>
+        <v>0.7099999785423279</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -7638,11 +7658,11 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>VIANA DO CASTELO</t>
+          <t>SETÚBAL</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7657,7 +7677,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7666,10 +7686,10 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>831</v>
+        <v>5858</v>
       </c>
       <c r="H186" t="n">
-        <v>0.5899999737739563</v>
+        <v>1.490000009536743</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -7696,7 +7716,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7705,10 +7725,10 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>10727</v>
+        <v>831</v>
       </c>
       <c r="H187" t="n">
-        <v>7.659999847412109</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -7735,7 +7755,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7744,10 +7764,10 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>8741</v>
+        <v>10727</v>
       </c>
       <c r="H188" t="n">
-        <v>6.25</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -7774,7 +7794,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7783,10 +7803,10 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>450</v>
+        <v>8741</v>
       </c>
       <c r="H189" t="n">
-        <v>0.3199999928474426</v>
+        <v>6.25</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -7813,7 +7833,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7822,10 +7842,10 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>314</v>
+        <v>450</v>
       </c>
       <c r="H190" t="n">
-        <v>0.2199999988079071</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -7852,7 +7872,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7861,10 +7881,10 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>743</v>
+        <v>314</v>
       </c>
       <c r="H191" t="n">
-        <v>0.5299999713897705</v>
+        <v>0.2199999988079071</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -7891,7 +7911,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7900,10 +7920,10 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="H192" t="n">
-        <v>0.5199999809265137</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -7930,7 +7950,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7939,13 +7959,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>76207</v>
+        <v>729</v>
       </c>
       <c r="H193" t="n">
-        <v>54.45000076293945</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="I193" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7969,7 +7989,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7978,13 +7998,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1078</v>
+        <v>76207</v>
       </c>
       <c r="H194" t="n">
-        <v>0.7699999809265137</v>
+        <v>54.45000076293945</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -8008,7 +8028,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8017,10 +8037,10 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>6758</v>
+        <v>1078</v>
       </c>
       <c r="H195" t="n">
-        <v>4.829999923706055</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -8047,7 +8067,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8056,13 +8076,13 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>28351</v>
+        <v>6758</v>
       </c>
       <c r="H196" t="n">
-        <v>20.26000022888184</v>
+        <v>4.829999923706055</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -8086,7 +8106,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8095,13 +8115,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>708</v>
+        <v>28351</v>
       </c>
       <c r="H197" t="n">
-        <v>0.5099999904632568</v>
+        <v>20.26000022888184</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -8125,7 +8145,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8134,10 +8154,10 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>641</v>
+        <v>708</v>
       </c>
       <c r="H198" t="n">
-        <v>0.4600000083446503</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -8145,11 +8165,11 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>VILA REAL</t>
+          <t>VIANA DO CASTELO</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8164,7 +8184,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8173,10 +8193,10 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>6741</v>
+        <v>641</v>
       </c>
       <c r="H199" t="n">
-        <v>4.960000038146973</v>
+        <v>0.4600000083446503</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -8203,7 +8223,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8212,10 +8232,10 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5559</v>
+        <v>6741</v>
       </c>
       <c r="H200" t="n">
-        <v>4.090000152587891</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -8242,7 +8262,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8251,10 +8271,10 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>351</v>
+        <v>5559</v>
       </c>
       <c r="H201" t="n">
-        <v>0.2599999904632568</v>
+        <v>4.090000152587891</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -8281,7 +8301,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8290,10 +8310,10 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>752</v>
+        <v>351</v>
       </c>
       <c r="H202" t="n">
-        <v>0.550000011920929</v>
+        <v>0.2599999904632568</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -8320,7 +8340,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8329,10 +8349,10 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>365</v>
+        <v>752</v>
       </c>
       <c r="H203" t="n">
-        <v>0.2700000107288361</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -8359,7 +8379,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8368,10 +8388,10 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1485</v>
+        <v>365</v>
       </c>
       <c r="H204" t="n">
-        <v>1.090000033378601</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -8398,7 +8418,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -8407,13 +8427,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>84965</v>
+        <v>1485</v>
       </c>
       <c r="H205" t="n">
-        <v>62.5099983215332</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="I205" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -8437,7 +8457,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8446,13 +8466,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>436</v>
+        <v>84965</v>
       </c>
       <c r="H206" t="n">
-        <v>0.3199999928474426</v>
+        <v>62.5099983215332</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -8476,7 +8496,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8485,10 +8505,10 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1832</v>
+        <v>436</v>
       </c>
       <c r="H207" t="n">
-        <v>1.350000023841858</v>
+        <v>0.3199999928474426</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -8515,7 +8535,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8524,13 +8544,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>27639</v>
+        <v>1832</v>
       </c>
       <c r="H208" t="n">
-        <v>20.34000015258789</v>
+        <v>1.350000023841858</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -8554,7 +8574,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8563,13 +8583,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>778</v>
+        <v>27639</v>
       </c>
       <c r="H209" t="n">
-        <v>0.5699999928474426</v>
+        <v>20.34000015258789</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -8593,7 +8613,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8602,10 +8622,10 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>544</v>
+        <v>778</v>
       </c>
       <c r="H210" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -8613,11 +8633,11 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>VISEU</t>
+          <t>VILA REAL</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8632,7 +8652,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8641,10 +8661,10 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>15852</v>
+        <v>544</v>
       </c>
       <c r="H211" t="n">
-        <v>6.96999979019165</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -8671,7 +8691,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8680,10 +8700,10 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>6507</v>
+        <v>15852</v>
       </c>
       <c r="H212" t="n">
-        <v>2.859999895095825</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -8710,7 +8730,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8719,10 +8739,10 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>817</v>
+        <v>6507</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3600000143051147</v>
+        <v>2.859999895095825</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -8749,7 +8769,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8758,7 +8778,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H214" t="n">
         <v>0.3600000143051147</v>
@@ -8788,7 +8808,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -8797,10 +8817,10 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>461</v>
+        <v>818</v>
       </c>
       <c r="H215" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -8827,7 +8847,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8836,10 +8856,10 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3482</v>
+        <v>461</v>
       </c>
       <c r="H216" t="n">
-        <v>1.529999971389771</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -8866,7 +8886,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8875,13 +8895,13 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>145654</v>
+        <v>3482</v>
       </c>
       <c r="H217" t="n">
-        <v>64.05999755859375</v>
+        <v>1.529999971389771</v>
       </c>
       <c r="I217" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -8905,7 +8925,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8914,13 +8934,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>940</v>
+        <v>145654</v>
       </c>
       <c r="H218" t="n">
-        <v>0.4099999964237213</v>
+        <v>64.05999755859375</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
@@ -8944,7 +8964,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8953,10 +8973,10 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3932</v>
+        <v>940</v>
       </c>
       <c r="H219" t="n">
-        <v>1.730000019073486</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -8983,7 +9003,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8992,13 +9012,13 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>40762</v>
+        <v>3932</v>
       </c>
       <c r="H220" t="n">
-        <v>17.93000030517578</v>
+        <v>1.730000019073486</v>
       </c>
       <c r="I220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -9022,7 +9042,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -9031,13 +9051,13 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1006</v>
+        <v>40762</v>
       </c>
       <c r="H221" t="n">
-        <v>0.4399999976158142</v>
+        <v>17.93000030517578</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -9061,7 +9081,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -9070,10 +9090,10 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>777</v>
+        <v>1006</v>
       </c>
       <c r="H222" t="n">
-        <v>0.3400000035762787</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -9081,11 +9101,11 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>210000</v>
+        <v>180000</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>VISEU</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -9100,7 +9120,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -9109,10 +9129,10 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3129</v>
+        <v>777</v>
       </c>
       <c r="H223" t="n">
-        <v>3.289999961853027</v>
+        <v>0.3400000035762787</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -9124,7 +9144,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9163,7 +9183,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -9178,7 +9198,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -9187,10 +9207,10 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2188</v>
+        <v>3129</v>
       </c>
       <c r="H225" t="n">
-        <v>2.299999952316284</v>
+        <v>3.289999961853027</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -9202,7 +9222,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9241,7 +9261,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9256,7 +9276,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -9265,10 +9285,10 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>316</v>
+        <v>2188</v>
       </c>
       <c r="H227" t="n">
-        <v>0.3300000131130219</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -9280,7 +9300,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9319,7 +9339,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9334,7 +9354,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -9343,10 +9363,10 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>375</v>
+        <v>316</v>
       </c>
       <c r="H229" t="n">
-        <v>0.3899999856948853</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -9358,7 +9378,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9397,7 +9417,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9412,7 +9432,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -9421,10 +9441,10 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>977</v>
+        <v>375</v>
       </c>
       <c r="H231" t="n">
-        <v>1.029999971389771</v>
+        <v>0.3899999856948853</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -9436,7 +9456,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9475,7 +9495,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9490,7 +9510,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -9499,13 +9519,13 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>63450</v>
+        <v>977</v>
       </c>
       <c r="H233" t="n">
-        <v>66.66000366210938</v>
+        <v>1.029999971389771</v>
       </c>
       <c r="I233" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -9514,7 +9534,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9553,7 +9573,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9568,7 +9588,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -9577,13 +9597,13 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>411</v>
+        <v>63450</v>
       </c>
       <c r="H235" t="n">
-        <v>0.4300000071525574</v>
+        <v>66.66000366210938</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
@@ -9592,7 +9612,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9631,7 +9651,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9646,7 +9666,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -9655,10 +9675,10 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2870</v>
+        <v>411</v>
       </c>
       <c r="H237" t="n">
-        <v>3.019999980926514</v>
+        <v>0.4300000071525574</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -9670,7 +9690,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9709,7 +9729,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9724,7 +9744,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -9733,13 +9753,13 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>19017</v>
+        <v>2870</v>
       </c>
       <c r="H239" t="n">
-        <v>19.97999954223633</v>
+        <v>3.019999980926514</v>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -9748,7 +9768,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9787,7 +9807,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9802,7 +9822,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9811,13 +9831,13 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>486</v>
+        <v>19017</v>
       </c>
       <c r="H241" t="n">
-        <v>0.5099999904632568</v>
+        <v>19.97999954223633</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -9826,7 +9846,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9861,11 +9881,11 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MADEIRA</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9880,7 +9900,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -9889,10 +9909,10 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>6200</v>
+        <v>486</v>
       </c>
       <c r="H243" t="n">
-        <v>5.210000038146973</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -9919,7 +9939,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -9928,10 +9948,10 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2276</v>
+        <v>6200</v>
       </c>
       <c r="H244" t="n">
-        <v>1.909999966621399</v>
+        <v>5.210000038146973</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -9958,7 +9978,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -9967,10 +9987,10 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>345</v>
+        <v>2276</v>
       </c>
       <c r="H245" t="n">
-        <v>0.2899999916553497</v>
+        <v>1.909999966621399</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -9997,7 +10017,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -10006,10 +10026,10 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>532</v>
+        <v>345</v>
       </c>
       <c r="H246" t="n">
-        <v>0.449999988079071</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -10036,7 +10056,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -10045,10 +10065,10 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>829</v>
+        <v>532</v>
       </c>
       <c r="H247" t="n">
-        <v>0.699999988079071</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -10075,7 +10095,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -10084,13 +10104,13 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>77829</v>
+        <v>829</v>
       </c>
       <c r="H248" t="n">
-        <v>65.44999694824219</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="I248" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -10114,7 +10134,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -10123,13 +10143,13 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>416</v>
+        <v>77829</v>
       </c>
       <c r="H249" t="n">
-        <v>0.3499999940395355</v>
+        <v>65.44999694824219</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
@@ -10153,7 +10173,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -10162,10 +10182,10 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>3916</v>
+        <v>416</v>
       </c>
       <c r="H250" t="n">
-        <v>3.289999961853027</v>
+        <v>0.3499999940395355</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -10192,7 +10212,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -10201,13 +10221,13 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>19288</v>
+        <v>3916</v>
       </c>
       <c r="H251" t="n">
-        <v>16.21999931335449</v>
+        <v>3.289999961853027</v>
       </c>
       <c r="I251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -10231,7 +10251,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -10240,13 +10260,13 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1008</v>
+        <v>19288</v>
       </c>
       <c r="H252" t="n">
-        <v>0.8500000238418579</v>
+        <v>16.21999931335449</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -10270,7 +10290,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -10279,10 +10299,10 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3648</v>
+        <v>1008</v>
       </c>
       <c r="H253" t="n">
-        <v>3.069999933242798</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -10290,11 +10310,11 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>MADEIRA</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10309,7 +10329,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -10318,13 +10338,13 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>278561</v>
+        <v>3648</v>
       </c>
       <c r="H254" t="n">
-        <v>4.909999847412109</v>
+        <v>3.069999933242798</v>
       </c>
       <c r="I254" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -10348,7 +10368,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -10357,13 +10377,13 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>251987</v>
+        <v>278561</v>
       </c>
       <c r="H255" t="n">
-        <v>4.440000057220459</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="I255" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -10387,7 +10407,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -10396,13 +10416,13 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>689137</v>
+        <v>251987</v>
       </c>
       <c r="H256" t="n">
-        <v>12.14000034332275</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="I256" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -10426,7 +10446,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -10435,13 +10455,13 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>32607</v>
+        <v>689137</v>
       </c>
       <c r="H257" t="n">
-        <v>0.5699999928474426</v>
+        <v>12.14000034332275</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="258">
@@ -10465,7 +10485,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -10474,10 +10494,10 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>18544</v>
+        <v>32607</v>
       </c>
       <c r="H258" t="n">
-        <v>0.3300000131130219</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -10504,7 +10524,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -10513,10 +10533,10 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>20800</v>
+        <v>18544</v>
       </c>
       <c r="H259" t="n">
-        <v>0.3700000047683716</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -10543,7 +10563,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -10552,10 +10572,10 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>31667</v>
+        <v>20800</v>
       </c>
       <c r="H260" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -10582,7 +10602,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>POUS</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -10591,10 +10611,10 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>9185</v>
+        <v>31667</v>
       </c>
       <c r="H261" t="n">
-        <v>0.1599999964237213</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -10621,7 +10641,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>POUS</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -10630,13 +10650,13 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2850784</v>
+        <v>9185</v>
       </c>
       <c r="H262" t="n">
-        <v>50.22000122070312</v>
+        <v>0.1599999964237213</v>
       </c>
       <c r="I262" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -10660,7 +10680,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -10669,13 +10689,13 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>23218</v>
+        <v>2850784</v>
       </c>
       <c r="H263" t="n">
-        <v>0.4099999964237213</v>
+        <v>50.22000122070312</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="264">
@@ -10699,7 +10719,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -10708,13 +10728,13 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1262506</v>
+        <v>23218</v>
       </c>
       <c r="H264" t="n">
-        <v>22.23999977111816</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I264" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -10738,7 +10758,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -10747,13 +10767,13 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>32977</v>
+        <v>1262506</v>
       </c>
       <c r="H265" t="n">
-        <v>0.5799999833106995</v>
+        <v>22.23999977111816</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266">
@@ -10777,7 +10797,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -10786,10 +10806,10 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>50717</v>
+        <v>32977</v>
       </c>
       <c r="H266" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -10797,11 +10817,11 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>750040</v>
+        <v>230000</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>EUROPA</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10816,7 +10836,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -10825,10 +10845,10 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1278</v>
+        <v>50717</v>
       </c>
       <c r="H267" t="n">
-        <v>6.639999866485596</v>
+        <v>0.8899999856948853</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -10855,7 +10875,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -10864,10 +10884,10 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3054</v>
+        <v>1278</v>
       </c>
       <c r="H268" t="n">
-        <v>15.85999965667725</v>
+        <v>6.639999866485596</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -10894,7 +10914,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -10903,10 +10923,10 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>97</v>
+        <v>3054</v>
       </c>
       <c r="H269" t="n">
-        <v>0.5</v>
+        <v>15.85999965667725</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -10933,7 +10953,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -10942,10 +10962,10 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="H270" t="n">
-        <v>0.3600000143051147</v>
+        <v>0.5</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -10972,7 +10992,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -10981,10 +11001,10 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="H271" t="n">
-        <v>1.340000033378601</v>
+        <v>0.3600000143051147</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -11011,7 +11031,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -11020,10 +11040,10 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>311</v>
+        <v>258</v>
       </c>
       <c r="H272" t="n">
-        <v>1.610000014305115</v>
+        <v>1.340000033378601</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -11050,7 +11070,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -11059,13 +11079,13 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>7125</v>
+        <v>311</v>
       </c>
       <c r="H273" t="n">
-        <v>36.9900016784668</v>
+        <v>1.610000014305115</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -11089,7 +11109,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -11098,13 +11118,13 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>38</v>
+        <v>7125</v>
       </c>
       <c r="H274" t="n">
-        <v>0.2000000029802322</v>
+        <v>36.9900016784668</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -11128,7 +11148,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -11137,10 +11157,10 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>944</v>
+        <v>38</v>
       </c>
       <c r="H275" t="n">
-        <v>4.900000095367432</v>
+        <v>0.2000000029802322</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -11167,7 +11187,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -11176,13 +11196,13 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5467</v>
+        <v>944</v>
       </c>
       <c r="H276" t="n">
-        <v>28.3799991607666</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -11206,7 +11226,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -11215,13 +11235,13 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>25</v>
+        <v>5467</v>
       </c>
       <c r="H277" t="n">
-        <v>0.1299999952316284</v>
+        <v>28.3799991607666</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -11245,7 +11265,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PSR</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -11254,10 +11274,10 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H278" t="n">
-        <v>0.75</v>
+        <v>0.1299999952316284</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -11265,11 +11285,11 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>750050</v>
+        <v>750040</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>FORA DA EUROPA</t>
+          <t>EUROPA</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11284,7 +11304,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -11293,10 +11313,10 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>6089</v>
+        <v>144</v>
       </c>
       <c r="H279" t="n">
-        <v>19.90999984741211</v>
+        <v>0.75</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -11323,7 +11343,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>CDU</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -11332,10 +11352,10 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>418</v>
+        <v>6089</v>
       </c>
       <c r="H280" t="n">
-        <v>1.370000004768372</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -11362,7 +11382,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>MDP/CDE</t>
+          <t>CDU</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -11371,10 +11391,10 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>247</v>
+        <v>418</v>
       </c>
       <c r="H281" t="n">
-        <v>0.8100000023841858</v>
+        <v>1.370000004768372</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -11401,7 +11421,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>PC(R)</t>
+          <t>MDP/CDE</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -11410,10 +11430,10 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="H282" t="n">
-        <v>0.07000000029802322</v>
+        <v>0.8100000023841858</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -11440,7 +11460,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>PCTP/MRPP</t>
+          <t>PC(R)</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -11449,10 +11469,10 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="H283" t="n">
-        <v>0.2700000107288361</v>
+        <v>0.07000000029802322</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -11479,7 +11499,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>PDC</t>
+          <t>PCTP/MRPP</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -11488,10 +11508,10 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>706</v>
+        <v>82</v>
       </c>
       <c r="H284" t="n">
-        <v>2.309999942779541</v>
+        <v>0.2700000107288361</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -11518,7 +11538,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>PPD/PSD</t>
+          <t>PDC</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -11527,13 +11547,13 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>19343</v>
+        <v>706</v>
       </c>
       <c r="H285" t="n">
-        <v>63.2400016784668</v>
+        <v>2.309999942779541</v>
       </c>
       <c r="I285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -11557,7 +11577,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD/PSD</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -11566,13 +11586,13 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>90</v>
+        <v>19343</v>
       </c>
       <c r="H286" t="n">
-        <v>0.2899999916553497</v>
+        <v>63.2400016784668</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -11596,7 +11616,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>PRD</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -11605,10 +11625,10 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>513</v>
+        <v>90</v>
       </c>
       <c r="H287" t="n">
-        <v>1.679999947547913</v>
+        <v>0.2899999916553497</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -11635,7 +11655,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PRD</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -11644,10 +11664,10 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2221</v>
+        <v>513</v>
       </c>
       <c r="H288" t="n">
-        <v>7.260000228881836</v>
+        <v>1.679999947547913</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -11674,7 +11694,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>PSR</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -11683,10 +11703,10 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>73</v>
+        <v>2221</v>
       </c>
       <c r="H289" t="n">
-        <v>0.239999994635582</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -11713,21 +11733,60 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
+          <t>PSR</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>73</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.239999994635582</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>750050</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>FORA DA EUROPA</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>19/07/1987</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
           <t>UDP</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G290" t="n">
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
         <v>54</v>
       </c>
-      <c r="H290" t="n">
+      <c r="H291" t="n">
         <v>0.1800000071525574</v>
       </c>
-      <c r="I290" t="n">
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
